--- a/biology/Histoire de la zoologie et de la botanique/Brot/Brot..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Brot/Brot..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Felix de Avelar Brotero (Santo Antão do Tojal, Loures, 1744-Belém, Lisbonne, 1828) est un scientifique, médecin et botaniste portugais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1744 à Santo Antão do Tojal, près de Lisbonne, il entreprend des études de médecine en France, à Reims. En 1788, il se réfugie en France pour échapper à l'Inquisition. Pendant les deux ans que dure son séjour, il publie en langue portugaise un Compendio da Botanica afin de gagner sa vie. L'ouvrage, innovant, lui donne une immédiate notoriété comme botaniste.
 De retour au Portugal en 1790, il obtient l'année suivante la chaire de botanique et d'agriculture à l'Université de Coïmbre. Nommé Directeur des Jardins Botaniques, il agrandit et perfectionne le Jardin botanique de Coimbra et celui d'Ajuda à Lisbonne. Dans le même temps, il étudie toutes les plantes du monde, notamment des plantes tropicales comme le thé. Ses deux œuvres les plus célèbres sont sa Flora lusitanica (1804) et sa Phytographia Lusitaniae selectior (1816-1827), qui sont les premières descriptions détaillées de la flore portugaise , dont il révèle et analyse des espèces jusqu'alors inconnues. Dans sa Flora lusitanica, analyse de 1800 espèces, il latinise son nom comme Broterus.
@@ -545,7 +559,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le botaniste et médecin allemand Kurt Sprengel (1766-1833) lui a dédié le genre Brotera de la famille des Compositae. Boissier et Reuter lui ont dédié la pivoine du Portugal Paeonia broteri
 La revue de sciences naturelles des Jésuites portugais, fondée en 1902, fut appelée Brotéria en son honneur.</t>
@@ -576,7 +592,9 @@
           <t>Principaux ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Principios de agricultura philosophica. Coimbra: Imp. da Universidade, 1793.
 Flora Lusitanica: seu plantarum, quae in Lusitania vel sponte crescunt: vel frequentuns colunter, ex florum praesertim sexuleus systematic distributarum: synopsis. Olissipone: Ex Typogr. Regia, 1804. 2 vols.
